--- a/v1.xlsx
+++ b/v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferna\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAC4E51-334F-4F96-8D21-71E53EB552EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E7952B-2721-45A6-8724-A8E58BB83C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D240CDD9-5E80-4F45-8182-FE412BF73DF1}"/>
   </bookViews>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>esta es una prueba</t>
+  </si>
+  <si>
+    <t>aquí seguimos con la prueba</t>
   </si>
 </sst>
 </file>
@@ -401,15 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65705B7-EC6A-4914-B2EE-F61E4C68EF1B}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -417,7 +421,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>50000</v>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
